--- a/Excel Models/Reinsurance/406.xlsx
+++ b/Excel Models/Reinsurance/406.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcelo.franceschini\OneDrive - GRANT THORNTON BRASIL\MMF\Python\ActuarialServicesGrantThornton\Excel Models\Resseguros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcelo.franceschini\OneDrive - GRANT THORNTON BRASIL\MMF\Python\ActuarialServices\Excel Models\Reinsurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56500F60-89AA-40F0-A4C6-A93B002DB68E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{56500F60-89AA-40F0-A4C6-A93B002DB68E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{A7CC3906-C5DC-40F2-A05B-0454C3826C45}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{976F9278-E34C-4394-91C9-15A1E5811AC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{976F9278-E34C-4394-91C9-15A1E5811AC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Validação 406" sheetId="1" r:id="rId1"/>
@@ -129,12 +129,6 @@
     <t>CRÍTICA DE DADOS</t>
   </si>
   <si>
-    <t>Resseguro Aceito - ADM</t>
-  </si>
-  <si>
-    <t>Resseguro Aceito  - JUD</t>
-  </si>
-  <si>
     <t>Retrocessão Aceita - ADM</t>
   </si>
   <si>
@@ -214,6 +208,12 @@
   </si>
   <si>
     <t>#15</t>
+  </si>
+  <si>
+    <t>Provisão Sinistros a liquidar - ADM</t>
+  </si>
+  <si>
+    <t>Provisão Sinistros a liquidar - JUD</t>
   </si>
 </sst>
 </file>
@@ -722,21 +722,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,6 +733,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1230,8 +1230,8 @@
   </sheetPr>
   <dimension ref="A1:AK40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1306,119 +1306,119 @@
     </row>
     <row r="11" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="38"/>
+      <c r="S12" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
-      <c r="M12" s="34" t="s">
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="38"/>
+      <c r="Y12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="36"/>
-      <c r="S12" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="36"/>
-      <c r="Y12" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="36"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="38"/>
     </row>
     <row r="13" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="E13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="G13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="H13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="I13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="M13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="Q13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="S13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="V13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="8" t="s">
+      <c r="W13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="V13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="Y13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Z13" s="7" t="s">
+      <c r="AB13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AA13" s="8" t="s">
+      <c r="AC13" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC13" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="17" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="18" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="19" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="20" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="21" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="22" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="23" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="24" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="25" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="26" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -2182,11 +2182,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
+      <c r="G26" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
       <c r="J26" s="28">
         <f>SUM(J14:J25)</f>
         <v>0</v>
@@ -2195,11 +2195,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M26" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
+      <c r="M26" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
       <c r="P26" s="28">
         <f>SUM(P14:P25)</f>
         <v>0</v>
@@ -2208,11 +2208,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S26" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
+      <c r="S26" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
       <c r="V26" s="28">
         <f>SUM(V14:V25)</f>
         <v>0</v>
@@ -2221,11 +2221,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
+      <c r="Y26" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
       <c r="AB26" s="28">
         <f>SUM(AB14:AB25)</f>
         <v>0</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="27" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="28" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -2259,11 +2259,11 @@
       <c r="F28" s="30"/>
     </row>
     <row r="29" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="B29" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="31">
         <f>SUM(E14:E28)</f>
         <v>0</v>
@@ -2284,16 +2284,16 @@
     <row r="40" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="S12:W12"/>
     <mergeCell ref="Y12:AC12"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="S26:U26"/>
     <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="S12:W12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
